--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_6.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1332480.424303024</v>
+        <v>-1338342.744338204</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516698</v>
+        <v>2280223.653892731</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791242</v>
+        <v>419463.0933791243</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13398982.30099502</v>
+        <v>13397802.34221419</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>98.67683240809991</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>113.644135938204</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,7 +741,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
         <v>135.0820259802211</v>
@@ -750,13 +750,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>62.46955506727337</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>11.7373872077537</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>175.2139736830806</v>
@@ -817,28 +817,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>142.5210339138394</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>16.06912133895857</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>123.4697217181511</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>134.7697018342838</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +975,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
         <v>128.7880777047345</v>
@@ -990,7 +990,7 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>51.3843879845985</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
         <v>48.89338144820752</v>
@@ -1029,10 +1029,10 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>220.3146016126436</v>
+        <v>146.4474340248836</v>
       </c>
       <c r="W6" t="n">
         <v>227.816073408046</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>94.80196236086638</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>241.2345385229372</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>316.2911643938889</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>192.6539408792113</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
@@ -1297,22 +1297,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>76.74086563202131</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>28.43674363283137</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>176.0134209775431</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
@@ -1379,7 +1379,7 @@
         <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>337.9528155621449</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>31.29846957421956</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
         <v>321.4474895938729</v>
@@ -1528,25 +1528,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993872</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177844</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442482</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.845453133389</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456093</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901685</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187162</v>
+        <v>106.3206010992608</v>
       </c>
       <c r="U13" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>183.617419407362</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
         <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873667</v>
+        <v>140.3689092687441</v>
       </c>
       <c r="D14" t="n">
         <v>310.508405100767</v>
@@ -1622,10 +1622,10 @@
         <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372786</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1667,13 +1667,13 @@
         <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>101.1681362887079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1765,25 +1765,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993872</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465755</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681696</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.845453133389</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456093</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901685</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187162</v>
+        <v>157.2254367064024</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
-        <v>23.06951125529933</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
         <v>160.6612066001148</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386987</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>302.4985237799665</v>
       </c>
       <c r="C26" t="n">
-        <v>295.2524720077822</v>
+        <v>295.2524720077823</v>
       </c>
       <c r="D26" t="n">
         <v>287.5954430211825</v>
@@ -2564,7 +2564,7 @@
         <v>304.5664151603045</v>
       </c>
       <c r="F26" t="n">
-        <v>318.7342196110055</v>
+        <v>318.7342196110056</v>
       </c>
       <c r="G26" t="n">
         <v>315.0398534825604</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414337</v>
+        <v>42.9624712641434</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404353</v>
       </c>
       <c r="T26" t="n">
-        <v>127.274321941861</v>
+        <v>127.2743219418611</v>
       </c>
       <c r="U26" t="n">
-        <v>159.2039277954309</v>
+        <v>159.203927795431</v>
       </c>
       <c r="V26" t="n">
-        <v>244.6944667292003</v>
+        <v>244.6944667292004</v>
       </c>
       <c r="W26" t="n">
         <v>273.297770207079</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007185</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035426</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219398</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507309</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484036</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723247</v>
+        <v>72.5802388872325</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380451</v>
+        <v>59.93249105380454</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497647</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943239</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2767,7 +2767,7 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
-        <v>188.5931293662016</v>
+        <v>188.5931293662017</v>
       </c>
       <c r="V28" t="n">
         <v>169.3282772530676</v>
@@ -2779,7 +2779,7 @@
         <v>137.7482445205303</v>
       </c>
       <c r="Y28" t="n">
-        <v>126.8896660972066</v>
+        <v>126.8896660972067</v>
       </c>
     </row>
     <row r="29">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.7098784815728</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820278</v>
+        <v>276.4638267093885</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.8067977227888</v>
       </c>
       <c r="E32" t="n">
-        <v>292.22123233455</v>
+        <v>285.7777698619108</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126118</v>
       </c>
       <c r="G32" t="n">
-        <v>302.694670656806</v>
+        <v>296.2512081841667</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564641</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838894</v>
+        <v>24.17382596574967</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828906</v>
+        <v>52.06849973564979</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434673</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696765</v>
+        <v>140.4152824970372</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034459</v>
+        <v>225.9058214308066</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086853</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435636</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.189344688534</v>
+        <v>279.7458822158948</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431739</v>
+        <v>70.57601873167812</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459979</v>
+        <v>55.72314698196053</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643952</v>
+        <v>41.29686219380025</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931863</v>
+        <v>41.22330424667936</v>
       </c>
       <c r="F34" t="n">
-        <v>49.4162181390859</v>
+        <v>42.97275566644663</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147803</v>
+        <v>53.79159358883877</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805008</v>
+        <v>41.14384575541081</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922201</v>
+        <v>18.98356133658274</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367792</v>
+        <v>9.882059701038656</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920524</v>
+        <v>88.00800320656597</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407381</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404472</v>
+        <v>169.8044840678079</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.5396319546739</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480633</v>
+        <v>167.717178275424</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221366</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714522</v>
+        <v>108.1010207988129</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3326,10 +3326,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D38" t="n">
         <v>251.2267481799146</v>
@@ -3512,7 +3512,7 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F38" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G38" t="n">
         <v>278.6711586412925</v>
@@ -3521,7 +3521,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U38" t="n">
-        <v>122.8352329541621</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W38" t="n">
         <v>236.9290753658111</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H40" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708532</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369177</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978639</v>
@@ -3727,7 +3727,7 @@
         <v>101.3795496792624</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="41">
@@ -3989,13 +3989,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4037,10 +4037,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F46" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>873.552853376774</v>
+        <v>1276.717784003785</v>
       </c>
       <c r="C2" t="n">
-        <v>873.552853376774</v>
+        <v>1276.717784003785</v>
       </c>
       <c r="D2" t="n">
-        <v>873.552853376774</v>
+        <v>891.2766552204525</v>
       </c>
       <c r="E2" t="n">
-        <v>873.552853376774</v>
+        <v>891.2766552204525</v>
       </c>
       <c r="F2" t="n">
-        <v>456.6584149067518</v>
+        <v>474.3822167504303</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475499</v>
+        <v>465.2598652788375</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475499</v>
+        <v>141.1768148453282</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="K2" t="n">
-        <v>43.49565939475499</v>
+        <v>400.4856027838002</v>
       </c>
       <c r="L2" t="n">
-        <v>536.8159511132839</v>
+        <v>607.9173797052157</v>
       </c>
       <c r="M2" t="n">
-        <v>1075.074736123377</v>
+        <v>1121.520058314903</v>
       </c>
       <c r="N2" t="n">
-        <v>1602.886019760839</v>
+        <v>1635.12273692459</v>
       </c>
       <c r="O2" t="n">
-        <v>2042.925620653167</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737749</v>
+        <v>2037.169424102441</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737749</v>
+        <v>2037.169424102441</v>
       </c>
       <c r="T2" t="n">
-        <v>2174.782969737749</v>
+        <v>2037.169424102441</v>
       </c>
       <c r="U2" t="n">
-        <v>2174.782969737749</v>
+        <v>2037.169424102441</v>
       </c>
       <c r="V2" t="n">
-        <v>2174.782969737749</v>
+        <v>2037.169424102441</v>
       </c>
       <c r="W2" t="n">
-        <v>2059.990913234513</v>
+        <v>1666.170389070728</v>
       </c>
       <c r="X2" t="n">
-        <v>1670.53830816757</v>
+        <v>1276.717784003785</v>
       </c>
       <c r="Y2" t="n">
-        <v>1274.047599088171</v>
+        <v>1276.717784003785</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021442</v>
+        <v>715.0405061833806</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622364</v>
+        <v>564.3862757434728</v>
       </c>
       <c r="D3" t="n">
-        <v>505.1591874622364</v>
+        <v>434.2973083649531</v>
       </c>
       <c r="E3" t="n">
-        <v>368.7126965731242</v>
+        <v>297.8508174758408</v>
       </c>
       <c r="F3" t="n">
-        <v>244.280890456256</v>
+        <v>173.4190113589726</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822425</v>
+        <v>53.35919343083707</v>
       </c>
       <c r="H3" t="n">
-        <v>92.8829133828434</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="J3" t="n">
-        <v>98.17903122826925</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>98.17903122826925</v>
+        <v>474.3573750382922</v>
       </c>
       <c r="L3" t="n">
-        <v>581.7451171265825</v>
+        <v>957.9234609366054</v>
       </c>
       <c r="M3" t="n">
-        <v>1120.003902136675</v>
+        <v>957.9234609366054</v>
       </c>
       <c r="N3" t="n">
-        <v>1658.262687146768</v>
+        <v>1327.194567652341</v>
       </c>
       <c r="O3" t="n">
-        <v>2174.782969737749</v>
+        <v>1840.797246262028</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.782969737749</v>
+        <v>1840.797246262028</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635814</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535682</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734591</v>
+        <v>1898.178526015827</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413233</v>
+        <v>1688.115382694469</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.3482927843</v>
+        <v>1465.575381065536</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917587</v>
+        <v>1235.458135198823</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675983</v>
+        <v>1046.151057548835</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431056</v>
+        <v>866.8368406243419</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>692.9921944086237</v>
+        <v>504.4151336486741</v>
       </c>
       <c r="C4" t="n">
-        <v>522.7870764746129</v>
+        <v>504.4151336486741</v>
       </c>
       <c r="D4" t="n">
-        <v>522.7870764746129</v>
+        <v>504.4151336486741</v>
       </c>
       <c r="E4" t="n">
-        <v>367.2282643338154</v>
+        <v>504.4151336486741</v>
       </c>
       <c r="F4" t="n">
-        <v>367.2282643338154</v>
+        <v>504.4151336486741</v>
       </c>
       <c r="G4" t="n">
-        <v>198.974210433261</v>
+        <v>360.4544933316646</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475499</v>
+        <v>204.9759422931585</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475499</v>
+        <v>71.88151693023643</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662802</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>740.13418548044</v>
       </c>
       <c r="T4" t="n">
-        <v>709.2236301045415</v>
+        <v>504.4151336486741</v>
       </c>
       <c r="U4" t="n">
-        <v>692.9921944086237</v>
+        <v>504.4151336486741</v>
       </c>
       <c r="V4" t="n">
-        <v>692.9921944086237</v>
+        <v>504.4151336486741</v>
       </c>
       <c r="W4" t="n">
-        <v>692.9921944086237</v>
+        <v>504.4151336486741</v>
       </c>
       <c r="X4" t="n">
-        <v>692.9921944086237</v>
+        <v>504.4151336486741</v>
       </c>
       <c r="Y4" t="n">
-        <v>692.9921944086237</v>
+        <v>504.4151336486741</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>968.8055662007628</v>
+        <v>1053.217181563202</v>
       </c>
       <c r="C5" t="n">
-        <v>575.6300647036933</v>
+        <v>1053.217181563202</v>
       </c>
       <c r="D5" t="n">
-        <v>190.188935920361</v>
+        <v>1053.217181563202</v>
       </c>
       <c r="E5" t="n">
-        <v>65.47204529596594</v>
+        <v>1053.217181563202</v>
       </c>
       <c r="F5" t="n">
-        <v>52.61801086634776</v>
+        <v>917.0861696093798</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475499</v>
+        <v>503.9234140973829</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475499</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K5" t="n">
-        <v>188.1454323035831</v>
+        <v>545.1353756926283</v>
       </c>
       <c r="L5" t="n">
-        <v>681.465724022112</v>
+        <v>545.1353756926283</v>
       </c>
       <c r="M5" t="n">
-        <v>1219.724509032205</v>
+        <v>1058.738054302316</v>
       </c>
       <c r="N5" t="n">
-        <v>1641.749917465279</v>
+        <v>1102.08968465212</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465279</v>
+        <v>1542.129285544449</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596801</v>
+        <v>1890.316777675971</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023271</v>
+        <v>2037.169424102441</v>
       </c>
       <c r="S5" t="n">
-        <v>2136.790056023271</v>
+        <v>2037.169424102441</v>
       </c>
       <c r="T5" t="n">
-        <v>2136.790056023271</v>
+        <v>1813.668821661858</v>
       </c>
       <c r="U5" t="n">
-        <v>2136.790056023271</v>
+        <v>1813.668821661858</v>
       </c>
       <c r="V5" t="n">
-        <v>2136.790056023271</v>
+        <v>1813.668821661858</v>
       </c>
       <c r="W5" t="n">
-        <v>1765.791020991559</v>
+        <v>1442.669786630145</v>
       </c>
       <c r="X5" t="n">
-        <v>1765.791020991559</v>
+        <v>1053.217181563202</v>
       </c>
       <c r="Y5" t="n">
-        <v>1369.30031191216</v>
+        <v>1053.217181563202</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.8134179021442</v>
+        <v>840.8692298963693</v>
       </c>
       <c r="C6" t="n">
-        <v>655.8134179021442</v>
+        <v>690.2149994564616</v>
       </c>
       <c r="D6" t="n">
-        <v>525.7244505236246</v>
+        <v>560.1260320779419</v>
       </c>
       <c r="E6" t="n">
-        <v>389.2779596345123</v>
+        <v>423.6795411888296</v>
       </c>
       <c r="F6" t="n">
-        <v>264.8461535176441</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="G6" t="n">
-        <v>144.7863355895086</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.8829133828434</v>
+        <v>90.89050074442679</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>525.0693326546516</v>
       </c>
       <c r="M6" t="n">
-        <v>959.915873575022</v>
+        <v>642.3356118811469</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.27622687548</v>
+        <v>1155.938290490834</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466461</v>
+        <v>1669.540969100522</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182859</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816919</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635814</v>
+        <v>2051.245294714984</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614853</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734591</v>
+        <v>1739.330805813761</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413233</v>
+        <v>1739.330805813761</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.3482927843</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917587</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>986.9239692675983</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.6097523431056</v>
+        <v>992.6655643373307</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>502.1700734452587</v>
+        <v>242.0866348642472</v>
       </c>
       <c r="C7" t="n">
-        <v>502.1700734452587</v>
+        <v>71.88151693023644</v>
       </c>
       <c r="D7" t="n">
-        <v>502.1700734452587</v>
+        <v>71.88151693023644</v>
       </c>
       <c r="E7" t="n">
-        <v>502.1700734452587</v>
+        <v>71.88151693023644</v>
       </c>
       <c r="F7" t="n">
-        <v>344.8441386582316</v>
+        <v>71.88151693023644</v>
       </c>
       <c r="G7" t="n">
-        <v>176.5900847576771</v>
+        <v>71.88151693023644</v>
       </c>
       <c r="H7" t="n">
-        <v>176.5900847576771</v>
+        <v>71.88151693023644</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475499</v>
+        <v>71.88151693023644</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633838</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="S7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="T7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="U7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="V7" t="n">
-        <v>821.0416925688844</v>
+        <v>699.2790182646208</v>
       </c>
       <c r="W7" t="n">
-        <v>821.0416925688844</v>
+        <v>699.2790182646208</v>
       </c>
       <c r="X7" t="n">
-        <v>821.0416925688844</v>
+        <v>465.1986960476039</v>
       </c>
       <c r="Y7" t="n">
-        <v>597.9296313855277</v>
+        <v>242.0866348642472</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1339.790331424607</v>
+        <v>1115.441955960011</v>
       </c>
       <c r="C8" t="n">
-        <v>1339.790331424607</v>
+        <v>1115.441955960011</v>
       </c>
       <c r="D8" t="n">
-        <v>1339.790331424607</v>
+        <v>795.9559313197194</v>
       </c>
       <c r="E8" t="n">
-        <v>1339.790331424607</v>
+        <v>393.3724064362639</v>
       </c>
       <c r="F8" t="n">
-        <v>922.895892954585</v>
+        <v>380.5183720066457</v>
       </c>
       <c r="G8" t="n">
-        <v>509.7331374425881</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>318.7636682303387</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L8" t="n">
-        <v>318.7636682303387</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1086.634161864653</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1614.445445502115</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2054.485046394444</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4832,22 +4832,22 @@
         <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>1966.542096021721</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="U8" t="n">
-        <v>1710.78936645632</v>
+        <v>1905.389306738351</v>
       </c>
       <c r="V8" t="n">
-        <v>1710.78936645632</v>
+        <v>1905.389306738351</v>
       </c>
       <c r="W8" t="n">
-        <v>1339.790331424607</v>
+        <v>1905.389306738351</v>
       </c>
       <c r="X8" t="n">
-        <v>1339.790331424607</v>
+        <v>1515.936701671408</v>
       </c>
       <c r="Y8" t="n">
-        <v>1339.790331424607</v>
+        <v>1515.936701671408</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L9" t="n">
-        <v>160.4279523212711</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M9" t="n">
-        <v>745.9259573278732</v>
+        <v>858.0088487631995</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>763.5519739517948</v>
+        <v>714.6796704260792</v>
       </c>
       <c r="C10" t="n">
-        <v>593.346856017784</v>
+        <v>544.4745524920684</v>
       </c>
       <c r="D10" t="n">
-        <v>437.7137429202988</v>
+        <v>388.8414393945831</v>
       </c>
       <c r="E10" t="n">
-        <v>282.1549307795013</v>
+        <v>388.8414393945831</v>
       </c>
       <c r="F10" t="n">
-        <v>124.8289959924742</v>
+        <v>231.5155046075561</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>231.5155046075561</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>76.03695356905004</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>76.03695356905004</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -5002,10 +5002,10 @@
         <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>714.6796704260792</v>
       </c>
       <c r="Y10" t="n">
-        <v>948.7599926430961</v>
+        <v>714.6796704260792</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1966.681876406337</v>
+        <v>1621.58371308251</v>
       </c>
       <c r="C11" t="n">
-        <v>1645.302650055462</v>
+        <v>1300.204486731634</v>
       </c>
       <c r="D11" t="n">
-        <v>1331.657796418324</v>
+        <v>986.5596330944958</v>
       </c>
       <c r="E11" t="n">
-        <v>1000.870546681062</v>
+        <v>655.772383357234</v>
       </c>
       <c r="F11" t="n">
-        <v>655.7723833572338</v>
+        <v>655.772383357234</v>
       </c>
       <c r="G11" t="n">
-        <v>314.405902991431</v>
+        <v>314.4059029914312</v>
       </c>
       <c r="H11" t="n">
         <v>62.11912770411553</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="U11" t="n">
-        <v>2921.999930786569</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="V11" t="n">
-        <v>2651.689396636281</v>
+        <v>2740.928571142733</v>
       </c>
       <c r="W11" t="n">
-        <v>2620.074780904746</v>
+        <v>2441.725811257214</v>
       </c>
       <c r="X11" t="n">
-        <v>2620.074780904746</v>
+        <v>2124.069481336465</v>
       </c>
       <c r="Y11" t="n">
-        <v>2295.38034697154</v>
+        <v>1799.37504740326</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5118,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L12" t="n">
-        <v>580.3847592515303</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.156408878212</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N12" t="n">
-        <v>1863.93438008877</v>
+        <v>1458.783730761083</v>
       </c>
       <c r="O12" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
         <v>2380.454662679751</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>474.8748941930972</v>
+        <v>290.8620908077594</v>
       </c>
       <c r="C13" t="n">
-        <v>376.4660514052804</v>
+        <v>290.8620908077594</v>
       </c>
       <c r="D13" t="n">
-        <v>292.6292134539891</v>
+        <v>290.8620908077594</v>
       </c>
       <c r="E13" t="n">
-        <v>292.6292134539891</v>
+        <v>207.0995538131558</v>
       </c>
       <c r="F13" t="n">
-        <v>207.0995538131559</v>
+        <v>207.0995538131558</v>
       </c>
       <c r="G13" t="n">
-        <v>207.0995538131559</v>
+        <v>207.0995538131558</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>123.4172779208436</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774625</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
         <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118223</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138162</v>
+        <v>999.6269248138161</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5221,28 +5221,28 @@
         <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593279</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922022</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="T13" t="n">
-        <v>1149.68534223645</v>
+        <v>1337.233381028368</v>
       </c>
       <c r="U13" t="n">
-        <v>936.0428256245448</v>
+        <v>1123.590864416463</v>
       </c>
       <c r="V13" t="n">
-        <v>750.5706848090276</v>
+        <v>929.4077943834811</v>
       </c>
       <c r="W13" t="n">
-        <v>750.5706848090276</v>
+        <v>717.8736674608526</v>
       </c>
       <c r="X13" t="n">
-        <v>588.2866377382046</v>
+        <v>555.5896203900296</v>
       </c>
       <c r="Y13" t="n">
-        <v>588.2866377382046</v>
+        <v>404.2738343528669</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1780.935942880363</v>
+        <v>1853.630268855939</v>
       </c>
       <c r="C14" t="n">
-        <v>1459.556716529488</v>
+        <v>1711.843491816804</v>
       </c>
       <c r="D14" t="n">
-        <v>1145.91186289235</v>
+        <v>1398.198638179666</v>
       </c>
       <c r="E14" t="n">
-        <v>815.1246131550881</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="F14" t="n">
-        <v>470.0264498312598</v>
+        <v>722.3132251185756</v>
       </c>
       <c r="G14" t="n">
-        <v>128.6599694654568</v>
+        <v>380.9467447527725</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654568</v>
+        <v>128.659969465457</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5312,16 +5312,16 @@
         <v>2770.295603492179</v>
       </c>
       <c r="V14" t="n">
-        <v>2499.985069341892</v>
+        <v>2499.985069341891</v>
       </c>
       <c r="W14" t="n">
-        <v>2200.782309456373</v>
+        <v>2499.985069341891</v>
       </c>
       <c r="X14" t="n">
-        <v>1883.125979535624</v>
+        <v>2182.328739421142</v>
       </c>
       <c r="Y14" t="n">
-        <v>1780.935942880363</v>
+        <v>2182.328739421142</v>
       </c>
     </row>
     <row r="15">
@@ -5355,16 +5355,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L15" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M15" t="n">
-        <v>1223.947919817482</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N15" t="n">
         <v>1223.947919817482</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>485.7287123499369</v>
+        <v>160.5279704919324</v>
       </c>
       <c r="C16" t="n">
-        <v>387.3198695621201</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D16" t="n">
-        <v>387.3198695621201</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E16" t="n">
-        <v>303.5573325675165</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F16" t="n">
-        <v>303.5573325675165</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131559</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5440,46 +5440,46 @@
         <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027738</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118227</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138166</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
-        <v>1422.942916173673</v>
+        <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
         <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593279</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922022</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="T16" t="n">
-        <v>1149.68534223645</v>
+        <v>1206.899260712541</v>
       </c>
       <c r="U16" t="n">
-        <v>936.0428256245447</v>
+        <v>993.2567441006361</v>
       </c>
       <c r="V16" t="n">
-        <v>936.0428256245447</v>
+        <v>799.0736740676542</v>
       </c>
       <c r="W16" t="n">
-        <v>912.7402890030302</v>
+        <v>587.5395471450257</v>
       </c>
       <c r="X16" t="n">
-        <v>750.4562419322071</v>
+        <v>425.2555000742027</v>
       </c>
       <c r="Y16" t="n">
-        <v>599.1404558950443</v>
+        <v>273.9397140370399</v>
       </c>
     </row>
     <row r="17">
@@ -5498,16 +5498,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099317</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803433</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5525,7 +5525,7 @@
         <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
@@ -5534,13 +5534,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5549,10 +5549,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
@@ -5595,22 +5595,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L18" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N18" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,52 +5647,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>67.69877031229859</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>149.5338114222405</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>313.6614512960402</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>499.9530296343043</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>683.1426636655135</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>845.8474307072216</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5729,22 +5729,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975445</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5777,7 +5777,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5841,13 +5841,13 @@
         <v>978.5393418843826</v>
       </c>
       <c r="N21" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5911,25 +5911,25 @@
         <v>161.4017547291066</v>
       </c>
       <c r="K22" t="n">
-        <v>243.2367958390485</v>
+        <v>270.9691711012525</v>
       </c>
       <c r="L22" t="n">
-        <v>407.3644357128483</v>
+        <v>435.0968109750523</v>
       </c>
       <c r="M22" t="n">
-        <v>593.6560140511123</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N22" t="n">
-        <v>776.8456480823215</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O22" t="n">
-        <v>939.5504151240295</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P22" t="n">
         <v>1087.158956162812</v>
       </c>
       <c r="Q22" t="n">
-        <v>1090.581152532862</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5981,7 +5981,7 @@
         <v>261.1858216803431</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,10 +6011,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6066,25 +6066,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>96.81867335321709</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>96.81867335321709</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1208.156408878212</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N24" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,52 +6121,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K25" t="n">
-        <v>273.0105384364859</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L25" t="n">
-        <v>437.1381783102858</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M25" t="n">
-        <v>623.4297566485498</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N25" t="n">
-        <v>806.6193906797589</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O25" t="n">
-        <v>969.3241577214669</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P25" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q25" t="n">
-        <v>1092.622519868096</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424154</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218609</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F26" t="n">
-        <v>664.125737939027</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142185</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6224,52 +6224,52 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>311.0659935859516</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134135</v>
+        <v>763.0997113429867</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1895.47226483567</v>
+        <v>1925.441780118092</v>
       </c>
       <c r="N26" t="n">
-        <v>2516.334910202705</v>
+        <v>2453.253063755554</v>
       </c>
       <c r="O26" t="n">
-        <v>3049.425872824607</v>
+        <v>2893.292664647883</v>
       </c>
       <c r="P26" t="n">
-        <v>3483.397387236565</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q26" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
         <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605753</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
         <v>3468.110152452358</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164852</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420328</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640573</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>73.36485894755026</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>73.36485894755026</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>701.1365085742315</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N27" t="n">
-        <v>1356.914479784791</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.3300981985354</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517127</v>
+        <v>429.0656615517129</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414159</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878067</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
@@ -6385,13 +6385,13 @@
         <v>136.642478079686</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L28" t="n">
         <v>568.7078825225742</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6400,34 +6400,34 @@
         <v>1380.047947122476</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628628</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R28" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648018</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V28" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286453</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988167</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026484</v>
       </c>
     </row>
     <row r="29">
@@ -6443,16 +6443,16 @@
         <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218606</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390267</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142183</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6464,25 +6464,25 @@
         <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>755.8323718938493</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1249.152663612378</v>
+        <v>1286.389518343938</v>
       </c>
       <c r="M29" t="n">
-        <v>1888.204925386532</v>
+        <v>1832.390418388519</v>
       </c>
       <c r="N29" t="n">
-        <v>2509.067570753567</v>
+        <v>2360.201702025981</v>
       </c>
       <c r="O29" t="n">
-        <v>3042.158533375469</v>
+        <v>2893.292664647883</v>
       </c>
       <c r="P29" t="n">
-        <v>3483.397387236565</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
@@ -6500,13 +6500,13 @@
         <v>3060.131976164852</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420328</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640573</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6558,7 +6558,7 @@
         <v>2357.000848274085</v>
       </c>
       <c r="P30" t="n">
-        <v>2357.000848274085</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,7 +6595,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985349</v>
+        <v>504.3300981985348</v>
       </c>
       <c r="C31" t="n">
         <v>429.0656615517127</v>
@@ -6619,13 +6619,13 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796859</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192011</v>
+        <v>311.528880919201</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
         <v>848.0508225904115</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.798875918588</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303044</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401237</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463672</v>
+        <v>904.3560533993073</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057096</v>
+        <v>601.3807258108104</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230773</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189323</v>
+        <v>91.97314162835482</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234505</v>
       </c>
       <c r="J32" t="n">
-        <v>299.607503995599</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>763.8629527501309</v>
+        <v>571.187264538635</v>
       </c>
       <c r="L32" t="n">
-        <v>1257.18324446866</v>
+        <v>1176.159676832147</v>
       </c>
       <c r="M32" t="n">
-        <v>1803.18414451324</v>
+        <v>1722.160576876728</v>
       </c>
       <c r="N32" t="n">
-        <v>2330.995428150703</v>
+        <v>2249.97186051419</v>
       </c>
       <c r="O32" t="n">
-        <v>2876.308121770101</v>
+        <v>2690.011461406518</v>
       </c>
       <c r="P32" t="n">
-        <v>3224.495613901623</v>
+        <v>3118.49595413288</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042572</v>
+        <v>3303.341514273829</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038082</v>
+        <v>3377.756780117252</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908497</v>
+        <v>3325.162335939829</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397278</v>
+        <v>3215.58084438077</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696894</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.559527281938</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291776</v>
+        <v>2588.479603131751</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946333</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.37451074846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423759</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024681</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239485</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898325</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234505</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076164</v>
+        <v>180.6701178220724</v>
       </c>
       <c r="K33" t="n">
-        <v>389.2866943029881</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>872.8527802013014</v>
+        <v>573.6059565051527</v>
       </c>
       <c r="M33" t="n">
-        <v>872.8527802013014</v>
+        <v>573.6059565051527</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.52557902309</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476045</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375914</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253464</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624531</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757818</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965132</v>
+        <v>365.6713676929704</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918669</v>
+        <v>309.385360640485</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237462</v>
+        <v>267.6713584245252</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123132</v>
+        <v>226.0316571652531</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546507</v>
+        <v>182.6248332597514</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834607</v>
+        <v>128.2898902407224</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431922</v>
+        <v>86.73045008374176</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234505</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703943</v>
+        <v>149.4335135798906</v>
       </c>
       <c r="K34" t="n">
-        <v>226.8819394803362</v>
+        <v>231.2685546898325</v>
       </c>
       <c r="L34" t="n">
-        <v>496.2826720812062</v>
+        <v>507.0483151386153</v>
       </c>
       <c r="M34" t="n">
-        <v>787.8473431465404</v>
+        <v>799.1395520791237</v>
       </c>
       <c r="N34" t="n">
-        <v>1076.31006990482</v>
+        <v>1093.981306685316</v>
       </c>
       <c r="O34" t="n">
-        <v>1257.542160872944</v>
+        <v>1256.686073727024</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.691419376593</v>
+        <v>1376.562239503603</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746644</v>
+        <v>1379.984435873653</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308585</v>
+        <v>1370.002557387756</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420499</v>
+        <v>1281.105584451831</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518098</v>
+        <v>1159.30564350159</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689364</v>
+        <v>987.7859626250165</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395522</v>
+        <v>835.7257283273661</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000944</v>
+        <v>666.3144371400691</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012442</v>
+        <v>546.1532258045776</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584499</v>
+        <v>436.9602755027463</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975443</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099305</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6965,19 +6965,19 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7014,25 +7014,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M36" t="n">
-        <v>1223.947919817482</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229927</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L37" t="n">
-        <v>437.1381783102856</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M37" t="n">
-        <v>623.4297566485496</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N37" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O37" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P37" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975455</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099317</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803433</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924236</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7205,7 +7205,7 @@
         <v>2979.29570107106</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V38" t="n">
         <v>2644.789635573995</v>
@@ -7214,7 +7214,7 @@
         <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y38" t="n">
         <v>1882.877496443166</v>
@@ -7260,7 +7260,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H40" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7339,43 +7339,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>499.9530296343054</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>683.1426636655146</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296512</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.77996610623</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.202162476281</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R40" t="n">
         <v>1098.202162476281</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T40" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984007</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="41">
@@ -7394,16 +7394,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975453</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7433,10 +7433,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
@@ -7448,7 +7448,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
         <v>2147.691468840156</v>
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M42" t="n">
-        <v>1223.947919817482</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>2148.973980501895</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>2148.973980501895</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7561,34 +7561,34 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>407.3644357128483</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M43" t="n">
-        <v>593.6560140511123</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N43" t="n">
-        <v>776.8456480823215</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
-        <v>939.5504151240295</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R43" t="n">
         <v>1098.20216247628</v>
@@ -7640,7 +7640,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,7 +7673,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
@@ -7682,7 +7682,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
         <v>2405.467337224691</v>
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M45" t="n">
-        <v>1606.310991511064</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N45" t="n">
-        <v>1740.468202408463</v>
+        <v>1665.407894603582</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>2181.928177194563</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>67.6987703122995</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222414</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960412</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343052</v>
       </c>
       <c r="N46" t="n">
-        <v>677.5630210573304</v>
+        <v>683.1426636655144</v>
       </c>
       <c r="O46" t="n">
-        <v>840.2677880990384</v>
+        <v>845.8474307072225</v>
       </c>
       <c r="P46" t="n">
-        <v>965.7235964838006</v>
+        <v>965.7235964838011</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U46" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>362.7752171258609</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321646</v>
+        <v>668.515636051957</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920138</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>283.4906887405029</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
         <v>144.4986984183922</v>
@@ -8055,28 +8055,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>137.6801864580952</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837492</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886039</v>
+        <v>458.3732307488491</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431186</v>
       </c>
       <c r="P3" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8216,19 +8216,19 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321646</v>
+        <v>668.515636051957</v>
       </c>
       <c r="N5" t="n">
-        <v>575.4067826843235</v>
+        <v>192.9080169436475</v>
       </c>
       <c r="O5" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
         <v>502.0059847475129</v>
@@ -8292,28 +8292,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>210.8379091467819</v>
       </c>
       <c r="N6" t="n">
-        <v>144.3219646728112</v>
+        <v>604.1626973083964</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431187</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>271.1401458256686</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8468,10 +8468,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>464.6079711628815</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,19 +8529,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>422.8212561536984</v>
       </c>
       <c r="N9" t="n">
-        <v>553.266865265316</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8550,7 +8550,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8766,13 +8766,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>290.5921503773105</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
@@ -8781,10 +8781,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>613.9497439416879</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -8933,7 +8933,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M14" t="n">
-        <v>701.2411122488188</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N14" t="n">
         <v>682.2612020826953</v>
@@ -9003,19 +9003,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>340.2745745069883</v>
+        <v>115.0989755892052</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9173,7 +9173,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N17" t="n">
-        <v>682.2612020826953</v>
+        <v>682.2612020826963</v>
       </c>
       <c r="O17" t="n">
         <v>594.0482827698827</v>
@@ -9243,25 +9243,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9489,7 +9489,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>569.9919810238538</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9498,7 +9498,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9714,28 +9714,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>117.494503443537</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9951,13 +9951,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
         <v>726.4998994499999</v>
@@ -9966,13 +9966,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>491.4748860273811</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>206.6446779083334</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10206,10 +10206,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>87.08336481931465</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q30" t="n">
-        <v>126.0381992661173</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,19 +10425,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>163.9964000092958</v>
       </c>
       <c r="M33" t="n">
         <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10662,28 +10662,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10908,10 +10908,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N39" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11136,7 +11136,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
@@ -11145,19 +11145,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>320.902235706038</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,28 +11373,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>220.8844470939643</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>287.6151683397065</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>149.3980648820079</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372786</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362799</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>264.9122627124439</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,19 +23416,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465755</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681696</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>55.96294781945548</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>8.623819925290093</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>177.7965248186227</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362799</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>220.279353305165</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177844</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442482</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>5.058112212313745</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>186.3492743981029</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1175865.342927339</v>
+        <v>1175263.795313579</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1175865.342927339</v>
+        <v>1175263.795313579</v>
       </c>
     </row>
     <row r="4">
@@ -26320,13 +26320,13 @@
         <v>108199.3068560141</v>
       </c>
       <c r="E2" t="n">
-        <v>95615.41405464028</v>
+        <v>95615.41405464025</v>
       </c>
       <c r="F2" t="n">
-        <v>95615.41405464026</v>
+        <v>95615.41405464023</v>
       </c>
       <c r="G2" t="n">
-        <v>108199.306856014</v>
+        <v>108199.3068560141</v>
       </c>
       <c r="H2" t="n">
         <v>108199.3068560141</v>
@@ -26338,7 +26338,7 @@
         <v>108199.306856014</v>
       </c>
       <c r="K2" t="n">
-        <v>108199.3068560141</v>
+        <v>108199.306856014</v>
       </c>
       <c r="L2" t="n">
         <v>108199.306856014</v>
@@ -26347,7 +26347,7 @@
         <v>108199.3068560141</v>
       </c>
       <c r="N2" t="n">
-        <v>108199.3068560141</v>
+        <v>108199.306856014</v>
       </c>
       <c r="O2" t="n">
         <v>108199.3068560141</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.6570340548</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062187</v>
+        <v>22558.42953401372</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740446</v>
+        <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668196</v>
+        <v>47425.32553668195</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945026</v>
+        <v>200285.8640399291</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728551</v>
+        <v>62456.24177539691</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962295</v>
+        <v>43252.52447081119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277121</v>
+        <v>27767.69404277122</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188945.5063541667</v>
+        <v>195056.1330166298</v>
       </c>
       <c r="C4" t="n">
-        <v>188945.5063541667</v>
+        <v>195056.1330166298</v>
       </c>
       <c r="D4" t="n">
         <v>177238.0115641587</v>
       </c>
       <c r="E4" t="n">
-        <v>99893.08150805104</v>
+        <v>99893.08150805102</v>
       </c>
       <c r="F4" t="n">
-        <v>99893.08150805104</v>
+        <v>99893.08150805102</v>
       </c>
       <c r="G4" t="n">
         <v>147651.9979996332</v>
@@ -26439,19 +26439,19 @@
         <v>147651.9979996332</v>
       </c>
       <c r="J4" t="n">
-        <v>148402.4904640164</v>
+        <v>148402.4904640163</v>
       </c>
       <c r="K4" t="n">
         <v>148402.4904640163</v>
       </c>
       <c r="L4" t="n">
-        <v>148146.916563533</v>
+        <v>148013.5219544782</v>
       </c>
       <c r="M4" t="n">
         <v>147651.9979996332</v>
       </c>
       <c r="N4" t="n">
-        <v>147651.9979996333</v>
+        <v>147651.9979996331</v>
       </c>
       <c r="O4" t="n">
         <v>147651.9979996332</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481716</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481716</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,7 +26482,7 @@
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="H5" t="n">
         <v>58169.76931551966</v>
@@ -26497,16 +26497,16 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.1981331542</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-329635.4489300223</v>
+        <v>-325885.5507294877</v>
       </c>
       <c r="C6" t="n">
-        <v>-147430.5006381664</v>
+        <v>-152026.8936954329</v>
       </c>
       <c r="D6" t="n">
-        <v>-153446.3022959396</v>
+        <v>-161182.5915193315</v>
       </c>
       <c r="E6" t="n">
-        <v>-169586.2486272958</v>
+        <v>-169795.9801739854</v>
       </c>
       <c r="F6" t="n">
-        <v>-57463.68715325129</v>
+        <v>-57673.41869994086</v>
       </c>
       <c r="G6" t="n">
-        <v>-145047.7859958208</v>
+        <v>-145047.7859958207</v>
       </c>
       <c r="H6" t="n">
-        <v>-97622.46045913883</v>
+        <v>-97622.46045913878</v>
       </c>
       <c r="I6" t="n">
-        <v>-97622.46045913876</v>
+        <v>-97622.46045913878</v>
       </c>
       <c r="J6" t="n">
-        <v>-310664.3780564244</v>
+        <v>-304148.0929018509</v>
       </c>
       <c r="K6" t="n">
-        <v>-103862.2288619217</v>
+        <v>-103862.2288619218</v>
       </c>
       <c r="L6" t="n">
-        <v>-159044.8177965429</v>
+        <v>-163093.6550070153</v>
       </c>
       <c r="M6" t="n">
-        <v>-139823.2899187617</v>
+        <v>-140874.98492995</v>
       </c>
       <c r="N6" t="n">
-        <v>-97622.46045913885</v>
+        <v>-97622.4604591387</v>
       </c>
       <c r="O6" t="n">
         <v>-125390.15450191</v>
       </c>
       <c r="P6" t="n">
-        <v>-97622.46045913876</v>
+        <v>-97622.46045913875</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,19 +26707,19 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431644</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="N2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="O2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542297</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542298</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26802,7 +26802,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="H4" t="n">
         <v>776.4890963014441</v>
@@ -26817,7 +26817,7 @@
         <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095205</v>
+        <v>844.4391950293131</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26826,7 +26826,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085246</v>
+        <v>59.28165692085244</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.70961755346397</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660689</v>
+        <v>78.07030221924614</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551348</v>
+        <v>17.58004954287424</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346401</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542297</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485777</v>
+        <v>72.62154181506526</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773715</v>
+        <v>659.3622249971639</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407254</v>
+        <v>117.12687130428</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085246</v>
+        <v>59.28165692085244</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.70961755346397</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542297</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485777</v>
+        <v>72.62154181506526</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>38.2769133303599</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
@@ -27439,13 +27439,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>253.6449087431914</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27461,7 +27461,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27470,13 +27470,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>56.38966468158083</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>75.67705502765138</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27537,28 +27537,28 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>24.05047944770951</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,13 +27585,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>266.5152825015595</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>275.0879679164698</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>277.9557922510381</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27710,7 +27710,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>36.03005425080658</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27749,10 +27749,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>73.86716758776004</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>88.55397614352188</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
@@ -27783,19 +27783,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
@@ -27831,13 +27831,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>22.08501320444685</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>65.29555310161004</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>28.61165553696617</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,22 +28017,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>89.8306477295276</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>1.637743839327701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="17">
@@ -28743,7 +28743,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>35.71049010668742</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28761,13 +28761,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28983,7 +28983,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>28.01250026485259</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -28998,7 +28998,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>28.01250026485198</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C23" t="n">
         <v>130.3599693155844</v>
@@ -29217,31 +29217,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>28.01250026485243</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>128.2979821082774</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431644</v>
+        <v>30.27223765901272</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>86.65052755599589</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431664</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431755</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
     </row>
     <row r="29">
@@ -29536,16 +29536,16 @@
         <v>93.99127447431644</v>
       </c>
       <c r="K29" t="n">
-        <v>86.65052755599578</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>30.2722376590126</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>93.99127447431644</v>
@@ -29554,10 +29554,10 @@
         <v>93.99127447431644</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S29" t="n">
         <v>93.99127447431644</v>
@@ -29746,37 +29746,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J32" t="n">
-        <v>86.27291196566588</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -29785,37 +29785,37 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>81.10808140892954</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000709</v>
+        <v>106.8683420224691</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="O34" t="n">
-        <v>18.71446861254168</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="35">
@@ -30165,20 +30165,20 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668811</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>128.2979821082783</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U38" t="n">
-        <v>130.3599693155852</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J40" t="n">
         <v>30.07448747215907</v>
@@ -30411,43 +30411,43 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>5.636002634529518</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082788</v>
       </c>
       <c r="S40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="41">
@@ -30639,14 +30639,14 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
@@ -30657,13 +30657,13 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>35.71049010668801</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30876,7 +30876,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668834</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30894,7 +30894,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>5.636002634528936</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>130.3599693155844</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>209.5270473953692</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542297</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542297</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>133.1892414995778</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>55.23572912476188</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344373</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344373</v>
+        <v>373.0011178946825</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542297</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,19 +34936,19 @@
         <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542298</v>
       </c>
       <c r="N5" t="n">
-        <v>426.2882913465394</v>
+        <v>43.78952560586337</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
         <v>351.7045375065877</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>118.45078709747</v>
       </c>
       <c r="N6" t="n">
-        <v>58.94985181864453</v>
+        <v>518.7905844542298</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542298</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>128.0817426464313</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35188,10 +35188,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>314.3065239219563</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
+        <v>330.4341341043865</v>
+      </c>
+      <c r="N9" t="n">
         <v>591.4121262692951</v>
-      </c>
-      <c r="N9" t="n">
-        <v>467.8947524111493</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35270,7 +35270,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>200.5318035203923</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
@@ -35501,10 +35501,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>521.2621850527989</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257288</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488444</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M14" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N14" t="n">
         <v>533.1427107449111</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>247.8874524576764</v>
+        <v>22.71185353989332</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257288</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488444</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35893,7 +35893,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N17" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449122</v>
       </c>
       <c r="O17" t="n">
         <v>444.4844453457863</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.636002634528348</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
@@ -36057,13 +36057,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>251.4470054535426</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36209,7 +36209,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>484.6198681696871</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36218,7 +36218,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>100.2854818434253</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>110.6741579516626</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
@@ -36294,13 +36294,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>149.0995364028101</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>7.697989841835607</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>35.0500461102036</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K25" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36531,13 +36531,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>121.0870361379582</v>
+        <v>149.0995364028106</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>5.636002634528635</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>456.599714906096</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>581.7882983101042</v>
       </c>
       <c r="N26" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>438.3550650625836</v>
+        <v>445.6958119809041</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853755</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>56.37828989698313</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
         <v>634.1127774006881</v>
@@ -36686,13 +36686,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7873271384922</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215734</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36762,16 +36762,16 @@
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492754</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O28" t="n">
-        <v>258.3395240113953</v>
+        <v>258.3395240113964</v>
       </c>
       <c r="P28" t="n">
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446892</v>
+        <v>97.4480384844689</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,16 +36832,16 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>449.2589679877754</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>498.303324968211</v>
+        <v>528.5755626272236</v>
       </c>
       <c r="M29" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
@@ -36850,10 +36850,10 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853755</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>56.37828989698316</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36926,10 +36926,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q30" t="n">
-        <v>35.05004611020335</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>232.3837936917549</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318505</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>611.0832447409211</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
@@ -37081,16 +37081,16 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458571</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>432.8126189155172</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.7234727227376</v>
+        <v>75.16693519537687</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.2619698279118</v>
+        <v>82.70543230055108</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220909</v>
+        <v>278.5654145947301</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528628</v>
+        <v>295.0416534752611</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750297</v>
+        <v>297.8199541476689</v>
       </c>
       <c r="O34" t="n">
-        <v>183.0627181496205</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.423493438029</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
         <v>3.456764010152483</v>
@@ -37318,7 +37318,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
-        <v>444.4844453457864</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P35" t="n">
         <v>351.7045375065877</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>5.636002634529037</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>5.636002634529554</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37628,10 +37628,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N39" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37707,22 +37707,22 @@
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>193.8093140873215</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257368</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.636002634530013</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
@@ -37865,19 +37865,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>233.8188708867233</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M43" t="n">
         <v>188.1733114527919</v>
@@ -37953,13 +37953,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>156.7975262446462</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>135.5123342397976</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>200.5318035203919</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>5.636002634529267</v>
       </c>
       <c r="K46" t="n">
         <v>82.66165768680997</v>
@@ -38190,10 +38190,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>126.7230387724871</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.8167333257369</v>
+        <v>133.8167333257368</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
